--- a/ifmp_investigacion/data_cleaner_inputs/manually_retrieved_data.xlsx
+++ b/ifmp_investigacion/data_cleaner_inputs/manually_retrieved_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\git_repos\small_scale_projects\ifmp_investigacion\data_cleaner_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DB421E-7CE8-4BB4-9F5C-14C829C0EB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B49356-C1AE-4711-9011-97B5D24E86E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-2235" windowWidth="19440" windowHeight="15000" xr2:uid="{76DEA2A2-B0FA-4CA0-BE4C-D438FA25A859}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="884">
   <si>
     <t>responsables</t>
   </si>
@@ -2679,6 +2679,24 @@
   </si>
   <si>
     <t>['bagnato nunez']</t>
+  </si>
+  <si>
+    <t>['maria alejandra carboni', 'francisco cervantes', 'thaiz sanchez costa']</t>
+  </si>
+  <si>
+    <t>['centro interdisciplinario en cognicion para la ensenanza y el aprendizaje']</t>
+  </si>
+  <si>
+    <t>posgrados - fondo clemente estable</t>
+  </si>
+  <si>
+    <t>uyu 505128</t>
+  </si>
+  <si>
+    <t>codificacion de un discurso en forma predictiva: un analisis de seguimiento neural en situaciones de fiesta de coctel</t>
+  </si>
+  <si>
+    <t>https://anii.org.uy/proyectos/POS_FCE_2020_1_1009198/codificacion-de-un-discurso-en-forma-predictiva-un-analisis-de-seguimiento-neural-en-situaciones-de-fiesta-de-coctel/</t>
   </si>
 </sst>
 </file>
@@ -2714,10 +2732,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3032,11 +3051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED52C9EF-21BA-4853-969A-B1A71232164B}">
-  <dimension ref="A1:K384"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E379" sqref="E379"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L365" sqref="L365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16485,6 +16504,41 @@
         <v>804</v>
       </c>
     </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>878</v>
+      </c>
+      <c r="B385" t="s">
+        <v>879</v>
+      </c>
+      <c r="C385" t="s">
+        <v>866</v>
+      </c>
+      <c r="D385" t="s">
+        <v>880</v>
+      </c>
+      <c r="E385">
+        <v>2020</v>
+      </c>
+      <c r="F385" s="3">
+        <v>44013</v>
+      </c>
+      <c r="G385" s="3">
+        <v>44378</v>
+      </c>
+      <c r="H385" t="s">
+        <v>869</v>
+      </c>
+      <c r="I385" t="s">
+        <v>881</v>
+      </c>
+      <c r="J385" t="s">
+        <v>882</v>
+      </c>
+      <c r="K385" t="s">
+        <v>883</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
